--- a/xlsx/綠色建築_intext.xlsx
+++ b/xlsx/綠色建築_intext.xlsx
@@ -29,7 +29,7 @@
     <t>化学年表</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_綠色建築</t>
+    <t>体育运动_体育运动_技术_綠色建築</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%96%87</t>
